--- a/ResultadoEleicoesDistritos/VISEU_MANGUALDE.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_MANGUALDE.xlsx
@@ -597,64 +597,64 @@
         <v>5332</v>
       </c>
       <c r="H2" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I2" t="n">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="J2" t="n">
-        <v>2173</v>
+        <v>2244</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="M2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N2" t="n">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="T2" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="V2" t="n">
-        <v>3382</v>
+        <v>3367</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>3490</v>
+        <v>3433</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
